--- a/COPRO-seq/COPROseq.xlsx
+++ b/COPRO-seq/COPROseq.xlsx
@@ -118,18 +118,6 @@
     <t xml:space="preserve">42</t>
   </si>
   <si>
-    <t xml:space="preserve">B. ovatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. thetaiotaomicron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. uniformis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. vulgatus</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -153,6 +141,18 @@
       </rPr>
       <t xml:space="preserve">WH2</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B. ovatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. thetaiotaomicron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. uniformis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B. vulgatus</t>
   </si>
   <si>
     <t xml:space="preserve">C. aerofaciens</t>
@@ -556,11 +556,11 @@
   </sheetPr>
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A512" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C522" activeCellId="0" sqref="C522"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.23"/>
@@ -1008,7 +1008,7 @@
         <v>2.63654741442715</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1019,13 +1019,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>14.6045294285714</v>
+        <v>12.7564917142857</v>
       </c>
       <c r="E27" s="9" t="n">
-        <v>5.4891369915143</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.08262335413317</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -1036,13 +1036,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="11" t="n">
-        <v>17.405893</v>
+        <v>30.1004727142857</v>
       </c>
       <c r="E28" s="12" t="n">
-        <v>1.43996925441587</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.54874139397237</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -1053,13 +1053,13 @@
         <v>9</v>
       </c>
       <c r="D29" s="14" t="n">
-        <v>13.6157717142857</v>
+        <v>34.9707504285714</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>2.79268905623503</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.05264741982012</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -1070,13 +1070,13 @@
         <v>10</v>
       </c>
       <c r="D30" s="11" t="n">
-        <v>11.0188522857143</v>
+        <v>39.0095955714286</v>
       </c>
       <c r="E30" s="12" t="n">
-        <v>2.7709372669178</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.32748353873258</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1087,13 +1087,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="14" t="n">
-        <v>10.2342988571429</v>
+        <v>36.9345762857143</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>0.957059700667524</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9988718919206</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1104,13 +1104,13 @@
         <v>12</v>
       </c>
       <c r="D32" s="11" t="n">
-        <v>9.75441371428571</v>
+        <v>36.8204535714286</v>
       </c>
       <c r="E32" s="12" t="n">
-        <v>3.04821665148092</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.5138199482111</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -1121,13 +1121,13 @@
         <v>13</v>
       </c>
       <c r="D33" s="14" t="n">
-        <v>14.0658235714286</v>
+        <v>36.450682</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>1.20758738090898</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.32950565130172</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -1138,13 +1138,13 @@
         <v>14</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>13.7755844285714</v>
+        <v>41.5948995714286</v>
       </c>
       <c r="E34" s="12" t="n">
-        <v>1.51308028673199</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.94788997969256</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -1155,13 +1155,13 @@
         <v>15</v>
       </c>
       <c r="D35" s="14" t="n">
-        <v>8.34661071428571</v>
+        <v>27.4478377142857</v>
       </c>
       <c r="E35" s="15" t="n">
-        <v>1.99990083477846</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.76210306472811</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -1172,13 +1172,13 @@
         <v>16</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>2.30042371428571</v>
+        <v>19.372271</v>
       </c>
       <c r="E36" s="12" t="n">
-        <v>1.67088811042039</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.12008327694409</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>32</v>
       </c>
@@ -1189,13 +1189,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="14" t="n">
-        <v>0.579950428571429</v>
+        <v>21.2444522857143</v>
       </c>
       <c r="E37" s="15" t="n">
-        <v>0.268990962075468</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.54215488564248</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
@@ -1206,13 +1206,13 @@
         <v>18</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>1.51643414285714</v>
+        <v>18.7020215714286</v>
       </c>
       <c r="E38" s="12" t="n">
-        <v>2.88727632890748</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.64372650215219</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
@@ -1223,13 +1223,13 @@
         <v>19</v>
       </c>
       <c r="D39" s="14" t="n">
-        <v>0.678882285714286</v>
+        <v>17.542771</v>
       </c>
       <c r="E39" s="15" t="n">
-        <v>0.294760694884124</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.2756735878572</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -1240,13 +1240,13 @@
         <v>20</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>0.999313142857143</v>
+        <v>14.6931462857143</v>
       </c>
       <c r="E40" s="12" t="n">
-        <v>0.256401902998937</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.47888734287104</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -1257,13 +1257,13 @@
         <v>21</v>
       </c>
       <c r="D41" s="14" t="n">
-        <v>1.026958</v>
+        <v>16.7692232857143</v>
       </c>
       <c r="E41" s="15" t="n">
-        <v>0.243721783764466</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.34746890819216</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
@@ -1274,13 +1274,13 @@
         <v>22</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>1.10834728571429</v>
+        <v>16.2870614285714</v>
       </c>
       <c r="E42" s="12" t="n">
-        <v>0.380785372115191</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.35892776034338</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
@@ -1291,13 +1291,13 @@
         <v>23</v>
       </c>
       <c r="D43" s="14" t="n">
-        <v>4.35898171428571</v>
+        <v>24.6292512857143</v>
       </c>
       <c r="E43" s="15" t="n">
-        <v>1.23687582343873</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.59423880750759</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>32</v>
       </c>
@@ -1308,13 +1308,13 @@
         <v>24</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>8.34802057142857</v>
+        <v>35.2188555714286</v>
       </c>
       <c r="E44" s="12" t="n">
-        <v>2.19713731819785</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.40126864694973</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
@@ -1325,13 +1325,13 @@
         <v>25</v>
       </c>
       <c r="D45" s="14" t="n">
-        <v>9.87304985714286</v>
+        <v>37.7945312857143</v>
       </c>
       <c r="E45" s="15" t="n">
-        <v>1.09168738967518</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.15334556159412</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -1342,13 +1342,13 @@
         <v>26</v>
       </c>
       <c r="D46" s="11" t="n">
-        <v>9.23082657142857</v>
+        <v>42.6558267142857</v>
       </c>
       <c r="E46" s="12" t="n">
-        <v>0.902063432013857</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.55014721941136</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
@@ -1359,13 +1359,13 @@
         <v>27</v>
       </c>
       <c r="D47" s="14" t="n">
-        <v>10.7493374285714</v>
+        <v>39.2752028571429</v>
       </c>
       <c r="E47" s="15" t="n">
-        <v>1.54734018568735</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.70339945661511</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>32</v>
       </c>
@@ -1376,13 +1376,13 @@
         <v>28</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>19.0027088571429</v>
+        <v>35.0913911428571</v>
       </c>
       <c r="E48" s="12" t="n">
-        <v>4.44060978437596</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.43172100698887</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
@@ -1393,13 +1393,13 @@
         <v>29</v>
       </c>
       <c r="D49" s="14" t="n">
-        <v>14.0756061428571</v>
+        <v>42.1871681428571</v>
       </c>
       <c r="E49" s="15" t="n">
-        <v>2.53698808034511</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.71602417825362</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>32</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>30</v>
       </c>
       <c r="D50" s="11" t="n">
-        <v>15.9466682857143</v>
+        <v>40.9034427142857</v>
       </c>
       <c r="E50" s="12" t="n">
-        <v>1.73527580365425</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.65233978823162</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>32</v>
       </c>
@@ -1427,10 +1427,10 @@
         <v>31</v>
       </c>
       <c r="D51" s="14" t="n">
-        <v>16.4223417142857</v>
+        <v>38.4657215714286</v>
       </c>
       <c r="E51" s="15" t="n">
-        <v>1.13233867072617</v>
+        <v>2.79186192394609</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="8" t="n">
-        <v>7.35487771428571</v>
+        <v>14.6045294285714</v>
       </c>
       <c r="E52" s="9" t="n">
-        <v>3.54029047187241</v>
+        <v>5.4891369915143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1461,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="11" t="n">
-        <v>11.1086278571429</v>
+        <v>17.405893</v>
       </c>
       <c r="E53" s="12" t="n">
-        <v>1.60519074257406</v>
+        <v>1.43996925441587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="14" t="n">
-        <v>15.0867661428571</v>
+        <v>13.6157717142857</v>
       </c>
       <c r="E54" s="15" t="n">
-        <v>3.27630807404694</v>
+        <v>2.79268905623503</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="11" t="n">
-        <v>13.846808</v>
+        <v>11.0188522857143</v>
       </c>
       <c r="E55" s="12" t="n">
-        <v>1.94191389663771</v>
+        <v>2.7709372669178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,10 +1512,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="14" t="n">
-        <v>12.8136792857143</v>
+        <v>10.2342988571429</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>0.464692463887575</v>
+        <v>0.957059700667524</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,10 +1529,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="11" t="n">
-        <v>11.565227</v>
+        <v>9.75441371428571</v>
       </c>
       <c r="E57" s="12" t="n">
-        <v>1.49580016547198</v>
+        <v>3.04821665148092</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,10 +1546,10 @@
         <v>13</v>
       </c>
       <c r="D58" s="14" t="n">
-        <v>11.1229182857143</v>
+        <v>14.0658235714286</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>0.799310186010353</v>
+        <v>1.20758738090898</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>10.6821632857143</v>
+        <v>13.7755844285714</v>
       </c>
       <c r="E59" s="12" t="n">
-        <v>1.27880612662563</v>
+        <v>1.51308028673199</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="D60" s="14" t="n">
-        <v>9.83313557142857</v>
+        <v>8.34661071428571</v>
       </c>
       <c r="E60" s="15" t="n">
-        <v>1.29516261771857</v>
+        <v>1.99990083477846</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,10 +1597,10 @@
         <v>16</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>14.286367</v>
+        <v>2.30042371428571</v>
       </c>
       <c r="E61" s="12" t="n">
-        <v>2.71131303339723</v>
+        <v>1.67088811042039</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,10 +1614,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="14" t="n">
-        <v>14.3670752857143</v>
+        <v>0.579950428571429</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>3.73236766811215</v>
+        <v>0.268990962075468</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,10 +1631,10 @@
         <v>18</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>13.5250067142857</v>
+        <v>1.51643414285714</v>
       </c>
       <c r="E63" s="12" t="n">
-        <v>2.29626382882156</v>
+        <v>2.88727632890748</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,10 +1648,10 @@
         <v>19</v>
       </c>
       <c r="D64" s="14" t="n">
-        <v>13.3391828571429</v>
+        <v>0.678882285714286</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>2.06180551753056</v>
+        <v>0.294760694884124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>17.141924</v>
+        <v>0.999313142857143</v>
       </c>
       <c r="E65" s="12" t="n">
-        <v>2.1510764652592</v>
+        <v>0.256401902998937</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,10 +1682,10 @@
         <v>21</v>
       </c>
       <c r="D66" s="14" t="n">
-        <v>11.2176978571429</v>
+        <v>1.026958</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>2.07669242563717</v>
+        <v>0.243721783764466</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,10 +1699,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>13.3437851428571</v>
+        <v>1.10834728571429</v>
       </c>
       <c r="E67" s="12" t="n">
-        <v>2.00178586884099</v>
+        <v>0.380785372115191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1716,10 @@
         <v>23</v>
       </c>
       <c r="D68" s="14" t="n">
-        <v>20.5639764285714</v>
+        <v>4.35898171428571</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>6.27907825929443</v>
+        <v>1.23687582343873</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>12.4830612857143</v>
+        <v>8.34802057142857</v>
       </c>
       <c r="E69" s="12" t="n">
-        <v>2.91564015469135</v>
+        <v>2.19713731819785</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,10 +1750,10 @@
         <v>25</v>
       </c>
       <c r="D70" s="14" t="n">
-        <v>9.83281428571429</v>
+        <v>9.87304985714286</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>0.939178623838532</v>
+        <v>1.09168738967518</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,10 +1767,10 @@
         <v>26</v>
       </c>
       <c r="D71" s="11" t="n">
-        <v>7.20239657142857</v>
+        <v>9.23082657142857</v>
       </c>
       <c r="E71" s="12" t="n">
-        <v>1.68945565293883</v>
+        <v>0.902063432013857</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,10 +1784,10 @@
         <v>27</v>
       </c>
       <c r="D72" s="14" t="n">
-        <v>7.91782957142857</v>
+        <v>10.7493374285714</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>2.2224195265688</v>
+        <v>1.54734018568735</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,10 +1801,10 @@
         <v>28</v>
       </c>
       <c r="D73" s="11" t="n">
-        <v>9.196684</v>
+        <v>19.0027088571429</v>
       </c>
       <c r="E73" s="12" t="n">
-        <v>2.21994040324787</v>
+        <v>4.44060978437596</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,10 +1818,10 @@
         <v>29</v>
       </c>
       <c r="D74" s="14" t="n">
-        <v>8.82769457142857</v>
+        <v>14.0756061428571</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>1.24133479059423</v>
+        <v>2.53698808034511</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +1835,10 @@
         <v>30</v>
       </c>
       <c r="D75" s="11" t="n">
-        <v>9.53735085714286</v>
+        <v>15.9466682857143</v>
       </c>
       <c r="E75" s="12" t="n">
-        <v>1.01753831865921</v>
+        <v>1.73527580365425</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,10 +1852,10 @@
         <v>31</v>
       </c>
       <c r="D76" s="14" t="n">
-        <v>9.771517</v>
+        <v>16.4223417142857</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>0.91246559479157</v>
+        <v>1.13233867072617</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,10 +1869,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="8" t="n">
-        <v>1.081609</v>
+        <v>7.35487771428571</v>
       </c>
       <c r="E77" s="9" t="n">
-        <v>0.364728429027224</v>
+        <v>3.54029047187241</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,10 +1886,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="11" t="n">
-        <v>0.677466285714286</v>
+        <v>11.1086278571429</v>
       </c>
       <c r="E78" s="12" t="n">
-        <v>0.134098098519597</v>
+        <v>1.60519074257406</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,10 +1903,10 @@
         <v>9</v>
       </c>
       <c r="D79" s="14" t="n">
-        <v>1.41242428571429</v>
+        <v>15.0867661428571</v>
       </c>
       <c r="E79" s="15" t="n">
-        <v>0.288832438844574</v>
+        <v>3.27630807404694</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="D80" s="11" t="n">
-        <v>2.37751885714286</v>
+        <v>13.846808</v>
       </c>
       <c r="E80" s="12" t="n">
-        <v>0.644380837353819</v>
+        <v>1.94191389663771</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,10 +1937,10 @@
         <v>11</v>
       </c>
       <c r="D81" s="14" t="n">
-        <v>2.65488128571429</v>
+        <v>12.8136792857143</v>
       </c>
       <c r="E81" s="15" t="n">
-        <v>0.372580800053588</v>
+        <v>0.464692463887575</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,10 +1954,10 @@
         <v>12</v>
       </c>
       <c r="D82" s="11" t="n">
-        <v>2.79982757142857</v>
+        <v>11.565227</v>
       </c>
       <c r="E82" s="12" t="n">
-        <v>0.517206442765316</v>
+        <v>1.49580016547198</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="D83" s="14" t="n">
-        <v>4.43205428571429</v>
+        <v>11.1229182857143</v>
       </c>
       <c r="E83" s="15" t="n">
-        <v>0.684655258129402</v>
+        <v>0.799310186010353</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,10 +1988,10 @@
         <v>14</v>
       </c>
       <c r="D84" s="11" t="n">
-        <v>4.11462928571429</v>
+        <v>10.6821632857143</v>
       </c>
       <c r="E84" s="12" t="n">
-        <v>0.629998433238982</v>
+        <v>1.27880612662563</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,10 +2005,10 @@
         <v>15</v>
       </c>
       <c r="D85" s="14" t="n">
-        <v>2.86145842857143</v>
+        <v>9.83313557142857</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>0.520017779330302</v>
+        <v>1.29516261771857</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2022,10 @@
         <v>16</v>
       </c>
       <c r="D86" s="11" t="n">
-        <v>2.33060228571429</v>
+        <v>14.286367</v>
       </c>
       <c r="E86" s="12" t="n">
-        <v>0.55976817839016</v>
+        <v>2.71131303339723</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,10 +2039,10 @@
         <v>17</v>
       </c>
       <c r="D87" s="14" t="n">
-        <v>4.997606</v>
+        <v>14.3670752857143</v>
       </c>
       <c r="E87" s="15" t="n">
-        <v>1.1087211972104</v>
+        <v>3.73236766811215</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,10 +2056,10 @@
         <v>18</v>
       </c>
       <c r="D88" s="11" t="n">
-        <v>9.40651128571429</v>
+        <v>13.5250067142857</v>
       </c>
       <c r="E88" s="12" t="n">
-        <v>4.27139833935597</v>
+        <v>2.29626382882156</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,10 +2073,10 @@
         <v>19</v>
       </c>
       <c r="D89" s="14" t="n">
-        <v>8.97984842857143</v>
+        <v>13.3391828571429</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>3.43915990021647</v>
+        <v>2.06180551753056</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,10 +2090,10 @@
         <v>20</v>
       </c>
       <c r="D90" s="11" t="n">
-        <v>4.69105128571429</v>
+        <v>17.141924</v>
       </c>
       <c r="E90" s="12" t="n">
-        <v>2.08164612793319</v>
+        <v>2.1510764652592</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,10 +2107,10 @@
         <v>21</v>
       </c>
       <c r="D91" s="14" t="n">
-        <v>4.58553628571429</v>
+        <v>11.2176978571429</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>1.58367557353105</v>
+        <v>2.07669242563717</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="D92" s="11" t="n">
-        <v>4.302945</v>
+        <v>13.3437851428571</v>
       </c>
       <c r="E92" s="12" t="n">
-        <v>1.44132173894034</v>
+        <v>2.00178586884099</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,10 +2141,10 @@
         <v>23</v>
       </c>
       <c r="D93" s="14" t="n">
-        <v>5.56339628571429</v>
+        <v>20.5639764285714</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>0.950333378185907</v>
+        <v>6.27907825929443</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2158,10 +2158,10 @@
         <v>24</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>5.34816857142857</v>
+        <v>12.4830612857143</v>
       </c>
       <c r="E94" s="12" t="n">
-        <v>1.72044591200187</v>
+        <v>2.91564015469135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,10 +2175,10 @@
         <v>25</v>
       </c>
       <c r="D95" s="14" t="n">
-        <v>4.77889457142857</v>
+        <v>9.83281428571429</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>1.52424279403106</v>
+        <v>0.939178623838532</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,10 +2192,10 @@
         <v>26</v>
       </c>
       <c r="D96" s="11" t="n">
-        <v>4.55705557142857</v>
+        <v>7.20239657142857</v>
       </c>
       <c r="E96" s="12" t="n">
-        <v>2.46934532455088</v>
+        <v>1.68945565293883</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,10 +2209,10 @@
         <v>27</v>
       </c>
       <c r="D97" s="14" t="n">
-        <v>4.94557771428571</v>
+        <v>7.91782957142857</v>
       </c>
       <c r="E97" s="15" t="n">
-        <v>2.12656898738717</v>
+        <v>2.2224195265688</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,10 +2226,10 @@
         <v>28</v>
       </c>
       <c r="D98" s="11" t="n">
-        <v>5.37987542857143</v>
+        <v>9.196684</v>
       </c>
       <c r="E98" s="12" t="n">
-        <v>1.78154374132369</v>
+        <v>2.21994040324787</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="D99" s="14" t="n">
-        <v>2.71321571428571</v>
+        <v>8.82769457142857</v>
       </c>
       <c r="E99" s="15" t="n">
-        <v>0.949412017348231</v>
+        <v>1.24133479059423</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="D100" s="11" t="n">
-        <v>3.36273614285714</v>
+        <v>9.53735085714286</v>
       </c>
       <c r="E100" s="12" t="n">
-        <v>1.29087425742936</v>
+        <v>1.01753831865921</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,10 +2277,10 @@
         <v>31</v>
       </c>
       <c r="D101" s="14" t="n">
-        <v>3.56229671428571</v>
+        <v>9.771517</v>
       </c>
       <c r="E101" s="15" t="n">
-        <v>1.18453807631536</v>
+        <v>0.91246559479157</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,10 +2294,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="8" t="n">
-        <v>47.6988525714286</v>
+        <v>1.081609</v>
       </c>
       <c r="E102" s="9" t="n">
-        <v>19.4842951958858</v>
+        <v>0.364728429027224</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,10 +2311,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="11" t="n">
-        <v>15.532739</v>
+        <v>0.677466285714286</v>
       </c>
       <c r="E103" s="12" t="n">
-        <v>3.23962278640235</v>
+        <v>0.134098098519597</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="D104" s="14" t="n">
-        <v>9.88792657142857</v>
+        <v>1.41242428571429</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>1.17451112920963</v>
+        <v>0.288832438844574</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="D105" s="11" t="n">
-        <v>13.8408615714286</v>
+        <v>2.37751885714286</v>
       </c>
       <c r="E105" s="12" t="n">
-        <v>2.09138428873269</v>
+        <v>0.644380837353819</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,10 +2362,10 @@
         <v>11</v>
       </c>
       <c r="D106" s="14" t="n">
-        <v>14.1240542857143</v>
+        <v>2.65488128571429</v>
       </c>
       <c r="E106" s="15" t="n">
-        <v>0.483389871512879</v>
+        <v>0.372580800053588</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2379,10 @@
         <v>12</v>
       </c>
       <c r="D107" s="11" t="n">
-        <v>15.1298667142857</v>
+        <v>2.79982757142857</v>
       </c>
       <c r="E107" s="12" t="n">
-        <v>3.3367269295137</v>
+        <v>0.517206442765316</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,10 +2396,10 @@
         <v>13</v>
       </c>
       <c r="D108" s="14" t="n">
-        <v>11.7773705714286</v>
+        <v>4.43205428571429</v>
       </c>
       <c r="E108" s="15" t="n">
-        <v>2.3195415976032</v>
+        <v>0.684655258129402</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,10 +2413,10 @@
         <v>14</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>11.8288687142857</v>
+        <v>4.11462928571429</v>
       </c>
       <c r="E109" s="12" t="n">
-        <v>2.25891759101328</v>
+        <v>0.629998433238982</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,10 +2430,10 @@
         <v>15</v>
       </c>
       <c r="D110" s="14" t="n">
-        <v>22.8732957142857</v>
+        <v>2.86145842857143</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>4.18833296375753</v>
+        <v>0.520017779330302</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2447,10 @@
         <v>16</v>
       </c>
       <c r="D111" s="11" t="n">
-        <v>17.0014501428571</v>
+        <v>2.33060228571429</v>
       </c>
       <c r="E111" s="12" t="n">
-        <v>0.71867548977301</v>
+        <v>0.55976817839016</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,10 +2464,10 @@
         <v>17</v>
       </c>
       <c r="D112" s="14" t="n">
-        <v>13.2210757142857</v>
+        <v>4.997606</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>2.44166051767915</v>
+        <v>1.1087211972104</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2481,10 @@
         <v>18</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>18.7210502857143</v>
+        <v>9.40651128571429</v>
       </c>
       <c r="E113" s="12" t="n">
-        <v>4.63391157071973</v>
+        <v>4.27139833935597</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,10 +2498,10 @@
         <v>19</v>
       </c>
       <c r="D114" s="14" t="n">
-        <v>20.6182272857143</v>
+        <v>8.97984842857143</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>2.30272928666244</v>
+        <v>3.43915990021647</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,10 +2515,10 @@
         <v>20</v>
       </c>
       <c r="D115" s="11" t="n">
-        <v>20.9325887142857</v>
+        <v>4.69105128571429</v>
       </c>
       <c r="E115" s="12" t="n">
-        <v>2.65081984680946</v>
+        <v>2.08164612793319</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,10 +2532,10 @@
         <v>21</v>
       </c>
       <c r="D116" s="14" t="n">
-        <v>25.0710582857143</v>
+        <v>4.58553628571429</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>3.96053324433279</v>
+        <v>1.58367557353105</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,10 +2549,10 @@
         <v>22</v>
       </c>
       <c r="D117" s="11" t="n">
-        <v>24.8456584285714</v>
+        <v>4.302945</v>
       </c>
       <c r="E117" s="12" t="n">
-        <v>3.19946913219724</v>
+        <v>1.44132173894034</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,10 +2566,10 @@
         <v>23</v>
       </c>
       <c r="D118" s="14" t="n">
-        <v>14.2923578571429</v>
+        <v>5.56339628571429</v>
       </c>
       <c r="E118" s="15" t="n">
-        <v>1.85792997892659</v>
+        <v>0.950333378185907</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,10 +2583,10 @@
         <v>24</v>
       </c>
       <c r="D119" s="11" t="n">
-        <v>15.5101637142857</v>
+        <v>5.34816857142857</v>
       </c>
       <c r="E119" s="12" t="n">
-        <v>4.98089965920173</v>
+        <v>1.72044591200187</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +2600,10 @@
         <v>25</v>
       </c>
       <c r="D120" s="14" t="n">
-        <v>14.2406201428571</v>
+        <v>4.77889457142857</v>
       </c>
       <c r="E120" s="15" t="n">
-        <v>2.77134620873349</v>
+        <v>1.52424279403106</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,10 +2617,10 @@
         <v>26</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>16.8829534285714</v>
+        <v>4.55705557142857</v>
       </c>
       <c r="E121" s="12" t="n">
-        <v>3.59046983748844</v>
+        <v>2.46934532455088</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,10 +2634,10 @@
         <v>27</v>
       </c>
       <c r="D122" s="14" t="n">
-        <v>19.1109322857143</v>
+        <v>4.94557771428571</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>2.99858770137497</v>
+        <v>2.12656898738717</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,10 +2651,10 @@
         <v>28</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>13.6033385714286</v>
+        <v>5.37987542857143</v>
       </c>
       <c r="E123" s="12" t="n">
-        <v>1.48366790799726</v>
+        <v>1.78154374132369</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,10 +2668,10 @@
         <v>29</v>
       </c>
       <c r="D124" s="14" t="n">
-        <v>16.9158685714286</v>
+        <v>2.71321571428571</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>2.46477941848338</v>
+        <v>0.949412017348231</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2685,10 @@
         <v>30</v>
       </c>
       <c r="D125" s="11" t="n">
-        <v>14.7257034285714</v>
+        <v>3.36273614285714</v>
       </c>
       <c r="E125" s="12" t="n">
-        <v>2.77125474575975</v>
+        <v>1.29087425742936</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,13 +2702,13 @@
         <v>31</v>
       </c>
       <c r="D126" s="14" t="n">
-        <v>14.0856104285714</v>
+        <v>3.56229671428571</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>2.41088394099611</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.18453807631536</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>36</v>
       </c>
@@ -2719,13 +2719,13 @@
         <v>7</v>
       </c>
       <c r="D127" s="8" t="n">
-        <v>12.7564917142857</v>
+        <v>47.6988525714286</v>
       </c>
       <c r="E127" s="9" t="n">
-        <v>5.08262335413317</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19.4842951958858</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>36</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>8</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>30.1004727142857</v>
+        <v>15.532739</v>
       </c>
       <c r="E128" s="12" t="n">
-        <v>2.54874139397237</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.23962278640235</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>36</v>
       </c>
@@ -2753,13 +2753,13 @@
         <v>9</v>
       </c>
       <c r="D129" s="14" t="n">
-        <v>34.9707504285714</v>
+        <v>9.88792657142857</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>5.05264741982012</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.17451112920963</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>36</v>
       </c>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>39.0095955714286</v>
+        <v>13.8408615714286</v>
       </c>
       <c r="E130" s="12" t="n">
-        <v>7.32748353873258</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.09138428873269</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>36</v>
       </c>
@@ -2787,13 +2787,13 @@
         <v>11</v>
       </c>
       <c r="D131" s="14" t="n">
-        <v>36.9345762857143</v>
+        <v>14.1240542857143</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>1.9988718919206</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.483389871512879</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>36</v>
       </c>
@@ -2804,13 +2804,13 @@
         <v>12</v>
       </c>
       <c r="D132" s="11" t="n">
-        <v>36.8204535714286</v>
+        <v>15.1298667142857</v>
       </c>
       <c r="E132" s="12" t="n">
-        <v>5.5138199482111</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3367269295137</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>36</v>
       </c>
@@ -2821,13 +2821,13 @@
         <v>13</v>
       </c>
       <c r="D133" s="14" t="n">
-        <v>36.450682</v>
+        <v>11.7773705714286</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>2.32950565130172</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.3195415976032</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>36</v>
       </c>
@@ -2838,13 +2838,13 @@
         <v>14</v>
       </c>
       <c r="D134" s="11" t="n">
-        <v>41.5948995714286</v>
+        <v>11.8288687142857</v>
       </c>
       <c r="E134" s="12" t="n">
-        <v>3.94788997969256</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.25891759101328</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>36</v>
       </c>
@@ -2855,13 +2855,13 @@
         <v>15</v>
       </c>
       <c r="D135" s="14" t="n">
-        <v>27.4478377142857</v>
+        <v>22.8732957142857</v>
       </c>
       <c r="E135" s="15" t="n">
-        <v>6.76210306472811</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.18833296375753</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>36</v>
       </c>
@@ -2872,13 +2872,13 @@
         <v>16</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>19.372271</v>
+        <v>17.0014501428571</v>
       </c>
       <c r="E136" s="12" t="n">
-        <v>2.12008327694409</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.71867548977301</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>36</v>
       </c>
@@ -2889,13 +2889,13 @@
         <v>17</v>
       </c>
       <c r="D137" s="14" t="n">
-        <v>21.2444522857143</v>
+        <v>13.2210757142857</v>
       </c>
       <c r="E137" s="15" t="n">
-        <v>2.54215488564248</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.44166051767915</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>36</v>
       </c>
@@ -2906,13 +2906,13 @@
         <v>18</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>18.7020215714286</v>
+        <v>18.7210502857143</v>
       </c>
       <c r="E138" s="12" t="n">
-        <v>5.64372650215219</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.63391157071973</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>36</v>
       </c>
@@ -2923,13 +2923,13 @@
         <v>19</v>
       </c>
       <c r="D139" s="14" t="n">
-        <v>17.542771</v>
+        <v>20.6182272857143</v>
       </c>
       <c r="E139" s="15" t="n">
-        <v>5.2756735878572</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.30272928666244</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>36</v>
       </c>
@@ -2940,13 +2940,13 @@
         <v>20</v>
       </c>
       <c r="D140" s="11" t="n">
-        <v>14.6931462857143</v>
+        <v>20.9325887142857</v>
       </c>
       <c r="E140" s="12" t="n">
-        <v>2.47888734287104</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.65081984680946</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>36</v>
       </c>
@@ -2957,13 +2957,13 @@
         <v>21</v>
       </c>
       <c r="D141" s="14" t="n">
-        <v>16.7692232857143</v>
+        <v>25.0710582857143</v>
       </c>
       <c r="E141" s="15" t="n">
-        <v>2.34746890819216</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.96053324433279</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>36</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>22</v>
       </c>
       <c r="D142" s="11" t="n">
-        <v>16.2870614285714</v>
+        <v>24.8456584285714</v>
       </c>
       <c r="E142" s="12" t="n">
-        <v>2.35892776034338</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.19946913219724</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>36</v>
       </c>
@@ -2991,13 +2991,13 @@
         <v>23</v>
       </c>
       <c r="D143" s="14" t="n">
-        <v>24.6292512857143</v>
+        <v>14.2923578571429</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>3.59423880750759</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.85792997892659</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
         <v>36</v>
       </c>
@@ -3008,13 +3008,13 @@
         <v>24</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>35.2188555714286</v>
+        <v>15.5101637142857</v>
       </c>
       <c r="E144" s="12" t="n">
-        <v>6.40126864694973</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.98089965920173</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>36</v>
       </c>
@@ -3025,13 +3025,13 @@
         <v>25</v>
       </c>
       <c r="D145" s="14" t="n">
-        <v>37.7945312857143</v>
+        <v>14.2406201428571</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>4.15334556159412</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.77134620873349</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>36</v>
       </c>
@@ -3042,13 +3042,13 @@
         <v>26</v>
       </c>
       <c r="D146" s="11" t="n">
-        <v>42.6558267142857</v>
+        <v>16.8829534285714</v>
       </c>
       <c r="E146" s="12" t="n">
-        <v>3.55014721941136</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.59046983748844</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>36</v>
       </c>
@@ -3059,13 +3059,13 @@
         <v>27</v>
       </c>
       <c r="D147" s="14" t="n">
-        <v>39.2752028571429</v>
+        <v>19.1109322857143</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>5.70339945661511</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.99858770137497</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>36</v>
       </c>
@@ -3076,13 +3076,13 @@
         <v>28</v>
       </c>
       <c r="D148" s="11" t="n">
-        <v>35.0913911428571</v>
+        <v>13.6033385714286</v>
       </c>
       <c r="E148" s="12" t="n">
-        <v>4.43172100698887</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.48366790799726</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>36</v>
       </c>
@@ -3093,13 +3093,13 @@
         <v>29</v>
       </c>
       <c r="D149" s="14" t="n">
-        <v>42.1871681428571</v>
+        <v>16.9158685714286</v>
       </c>
       <c r="E149" s="15" t="n">
-        <v>3.71602417825362</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.46477941848338</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>36</v>
       </c>
@@ -3110,13 +3110,13 @@
         <v>30</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>40.9034427142857</v>
+        <v>14.7257034285714</v>
       </c>
       <c r="E150" s="12" t="n">
-        <v>2.65233978823162</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.77125474575975</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>36</v>
       </c>
@@ -3127,10 +3127,10 @@
         <v>31</v>
       </c>
       <c r="D151" s="14" t="n">
-        <v>38.4657215714286</v>
+        <v>14.0856104285714</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>2.79186192394609</v>
+        <v>2.41088394099611</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +6108,7 @@
         <v>4.8177685670437</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
         <v>32</v>
       </c>
@@ -6119,13 +6119,13 @@
         <v>7</v>
       </c>
       <c r="D327" s="21" t="n">
-        <v>22.04436025</v>
+        <v>20.516634625</v>
       </c>
       <c r="E327" s="22" t="n">
-        <v>3.40973167389098</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.74069262777131</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
         <v>32</v>
       </c>
@@ -6136,13 +6136,13 @@
         <v>8</v>
       </c>
       <c r="D328" s="11" t="n">
-        <v>11.16842325</v>
+        <v>14.926816375</v>
       </c>
       <c r="E328" s="12" t="n">
-        <v>2.94886012309869</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.11658605148509</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
         <v>32</v>
       </c>
@@ -6153,13 +6153,13 @@
         <v>9</v>
       </c>
       <c r="D329" s="14" t="n">
-        <v>3.119057375</v>
+        <v>11.620005625</v>
       </c>
       <c r="E329" s="15" t="n">
-        <v>1.00173375138934</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.85184968451003</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
         <v>32</v>
       </c>
@@ -6170,13 +6170,13 @@
         <v>10</v>
       </c>
       <c r="D330" s="11" t="n">
-        <v>1.348818625</v>
+        <v>19.91881675</v>
       </c>
       <c r="E330" s="12" t="n">
-        <v>0.759659365057211</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.79284147938605</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
         <v>32</v>
       </c>
@@ -6187,13 +6187,13 @@
         <v>11</v>
       </c>
       <c r="D331" s="14" t="n">
-        <v>1.84678775</v>
+        <v>20.156165875</v>
       </c>
       <c r="E331" s="15" t="n">
-        <v>0.728957231218824</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.70473734247433</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
         <v>32</v>
       </c>
@@ -6204,13 +6204,13 @@
         <v>12</v>
       </c>
       <c r="D332" s="11" t="n">
-        <v>1.90422675</v>
+        <v>20.103873375</v>
       </c>
       <c r="E332" s="12" t="n">
-        <v>0.414135358416528</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.31753124923131</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
         <v>32</v>
       </c>
@@ -6221,13 +6221,13 @@
         <v>13</v>
       </c>
       <c r="D333" s="14" t="n">
-        <v>1.865382125</v>
+        <v>18.994163875</v>
       </c>
       <c r="E333" s="15" t="n">
-        <v>0.594625348133581</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.59539614045575</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
         <v>32</v>
       </c>
@@ -6238,13 +6238,13 @@
         <v>14</v>
       </c>
       <c r="D334" s="11" t="n">
-        <v>1.810274</v>
+        <v>18.606982375</v>
       </c>
       <c r="E334" s="12" t="n">
-        <v>0.720501556313775</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.59891625106823</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
         <v>32</v>
       </c>
@@ -6255,13 +6255,13 @@
         <v>15</v>
       </c>
       <c r="D335" s="14" t="n">
-        <v>3.913468875</v>
+        <v>25.080495</v>
       </c>
       <c r="E335" s="15" t="n">
-        <v>1.12770958559303</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.84857046986595</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
         <v>32</v>
       </c>
@@ -6272,13 +6272,13 @@
         <v>16</v>
       </c>
       <c r="D336" s="11" t="n">
-        <v>7.502600375</v>
+        <v>35.16030025</v>
       </c>
       <c r="E336" s="12" t="n">
-        <v>1.43891751094742</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.44131848840841</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
         <v>32</v>
       </c>
@@ -6289,13 +6289,13 @@
         <v>17</v>
       </c>
       <c r="D337" s="14" t="n">
-        <v>9.28289275</v>
+        <v>39.598048</v>
       </c>
       <c r="E337" s="15" t="n">
-        <v>1.15414199285143</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.51856763015382</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
         <v>32</v>
       </c>
@@ -6306,13 +6306,13 @@
         <v>18</v>
       </c>
       <c r="D338" s="11" t="n">
-        <v>9.690658125</v>
+        <v>43.3115205</v>
       </c>
       <c r="E338" s="12" t="n">
-        <v>1.85127093521184</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.29979361107378</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
         <v>32</v>
       </c>
@@ -6323,13 +6323,13 @@
         <v>19</v>
       </c>
       <c r="D339" s="14" t="n">
-        <v>10.757699875</v>
+        <v>39.153396625</v>
       </c>
       <c r="E339" s="15" t="n">
-        <v>1.50058396785037</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.8314825477264</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
         <v>32</v>
       </c>
@@ -6340,13 +6340,13 @@
         <v>20</v>
       </c>
       <c r="D340" s="11" t="n">
-        <v>14.27353125</v>
+        <v>37.11423325</v>
       </c>
       <c r="E340" s="12" t="n">
-        <v>2.25882496441198</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2587199216769</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="s">
         <v>32</v>
       </c>
@@ -6357,13 +6357,13 @@
         <v>21</v>
       </c>
       <c r="D341" s="14" t="n">
-        <v>17.0286035</v>
+        <v>35.9514995</v>
       </c>
       <c r="E341" s="15" t="n">
-        <v>2.48729495446755</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.20220464979136</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="s">
         <v>32</v>
       </c>
@@ -6374,13 +6374,13 @@
         <v>22</v>
       </c>
       <c r="D342" s="11" t="n">
-        <v>17.811575375</v>
+        <v>35.830445875</v>
       </c>
       <c r="E342" s="12" t="n">
-        <v>2.84367105349124</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.20931305376647</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
         <v>32</v>
       </c>
@@ -6391,13 +6391,13 @@
         <v>23</v>
       </c>
       <c r="D343" s="14" t="n">
-        <v>8.741759</v>
+        <v>24.77737025</v>
       </c>
       <c r="E343" s="15" t="n">
-        <v>4.57389824569255</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.58313568465785</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
         <v>32</v>
       </c>
@@ -6408,13 +6408,13 @@
         <v>24</v>
       </c>
       <c r="D344" s="11" t="n">
-        <v>2.18617925</v>
+        <v>18.890345</v>
       </c>
       <c r="E344" s="12" t="n">
-        <v>0.642939719984641</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.06846414626602</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
         <v>32</v>
       </c>
@@ -6425,13 +6425,13 @@
         <v>25</v>
       </c>
       <c r="D345" s="14" t="n">
-        <v>0.67484525</v>
+        <v>17.291000125</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>0.190894384667656</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.00158978134232</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
         <v>32</v>
       </c>
@@ -6442,13 +6442,13 @@
         <v>26</v>
       </c>
       <c r="D346" s="11" t="n">
-        <v>0.642488125</v>
+        <v>21.34191725</v>
       </c>
       <c r="E346" s="12" t="n">
-        <v>0.347720075620128</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.12454171437445</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
         <v>32</v>
       </c>
@@ -6459,13 +6459,13 @@
         <v>27</v>
       </c>
       <c r="D347" s="14" t="n">
-        <v>0.63906525</v>
+        <v>21.36930825</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>0.257530073241803</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.61015991706364</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
         <v>32</v>
       </c>
@@ -6476,13 +6476,13 @@
         <v>28</v>
       </c>
       <c r="D348" s="11" t="n">
-        <v>0.609307875</v>
+        <v>19.880022</v>
       </c>
       <c r="E348" s="12" t="n">
-        <v>0.274136688463171</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.74215778775438</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
         <v>32</v>
       </c>
@@ -6493,13 +6493,13 @@
         <v>29</v>
       </c>
       <c r="D349" s="14" t="n">
-        <v>0.5566005</v>
+        <v>17.725723375</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>0.206283351661876</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.40134528243857</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
         <v>32</v>
       </c>
@@ -6510,13 +6510,13 @@
         <v>30</v>
       </c>
       <c r="D350" s="11" t="n">
-        <v>0.63717725</v>
+        <v>14.025701</v>
       </c>
       <c r="E350" s="12" t="n">
-        <v>0.176046411317138</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.06738098354463</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
         <v>32</v>
       </c>
@@ -6527,10 +6527,10 @@
         <v>31</v>
       </c>
       <c r="D351" s="14" t="n">
-        <v>0.84157275</v>
+        <v>16.4692735</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>0.263448166029324</v>
+        <v>5.33586941642407</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,10 +6544,10 @@
         <v>7</v>
       </c>
       <c r="D352" s="21" t="n">
-        <v>5.532161125</v>
+        <v>22.04436025</v>
       </c>
       <c r="E352" s="22" t="n">
-        <v>0.996254921814756</v>
+        <v>3.40973167389098</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,10 +6561,10 @@
         <v>8</v>
       </c>
       <c r="D353" s="11" t="n">
-        <v>14.144157875</v>
+        <v>11.16842325</v>
       </c>
       <c r="E353" s="12" t="n">
-        <v>2.81220771488022</v>
+        <v>2.94886012309869</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6578,10 +6578,10 @@
         <v>9</v>
       </c>
       <c r="D354" s="14" t="n">
-        <v>20.61658825</v>
+        <v>3.119057375</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>4.65604481104135</v>
+        <v>1.00173375138934</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,10 +6595,10 @@
         <v>10</v>
       </c>
       <c r="D355" s="11" t="n">
-        <v>8.1843045</v>
+        <v>1.348818625</v>
       </c>
       <c r="E355" s="12" t="n">
-        <v>1.24281890006434</v>
+        <v>0.759659365057211</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,10 +6612,10 @@
         <v>11</v>
       </c>
       <c r="D356" s="14" t="n">
-        <v>7.43111125</v>
+        <v>1.84678775</v>
       </c>
       <c r="E356" s="15" t="n">
-        <v>2.57147121019754</v>
+        <v>0.728957231218824</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,10 +6629,10 @@
         <v>12</v>
       </c>
       <c r="D357" s="11" t="n">
-        <v>9.89432225</v>
+        <v>1.90422675</v>
       </c>
       <c r="E357" s="12" t="n">
-        <v>1.34647546078618</v>
+        <v>0.414135358416528</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,10 +6646,10 @@
         <v>13</v>
       </c>
       <c r="D358" s="14" t="n">
-        <v>13.946114875</v>
+        <v>1.865382125</v>
       </c>
       <c r="E358" s="15" t="n">
-        <v>3.40915118867705</v>
+        <v>0.594625348133581</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,10 +6663,10 @@
         <v>14</v>
       </c>
       <c r="D359" s="11" t="n">
-        <v>9.451256</v>
+        <v>1.810274</v>
       </c>
       <c r="E359" s="12" t="n">
-        <v>2.39335590321713</v>
+        <v>0.720501556313775</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6680,10 +6680,10 @@
         <v>15</v>
       </c>
       <c r="D360" s="14" t="n">
-        <v>24.960791375</v>
+        <v>3.913468875</v>
       </c>
       <c r="E360" s="15" t="n">
-        <v>8.34410418918318</v>
+        <v>1.12770958559303</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6697,10 +6697,10 @@
         <v>16</v>
       </c>
       <c r="D361" s="11" t="n">
-        <v>15.562661125</v>
+        <v>7.502600375</v>
       </c>
       <c r="E361" s="12" t="n">
-        <v>3.44214761212952</v>
+        <v>1.43891751094742</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,10 +6714,10 @@
         <v>17</v>
       </c>
       <c r="D362" s="14" t="n">
-        <v>12.599935125</v>
+        <v>9.28289275</v>
       </c>
       <c r="E362" s="15" t="n">
-        <v>2.48570760398439</v>
+        <v>1.15414199285143</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,10 +6731,10 @@
         <v>18</v>
       </c>
       <c r="D363" s="11" t="n">
-        <v>9.2050485</v>
+        <v>9.690658125</v>
       </c>
       <c r="E363" s="12" t="n">
-        <v>1.89254064173164</v>
+        <v>1.85127093521184</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6748,10 +6748,10 @@
         <v>19</v>
       </c>
       <c r="D364" s="14" t="n">
-        <v>9.065533625</v>
+        <v>10.757699875</v>
       </c>
       <c r="E364" s="15" t="n">
-        <v>1.23745838370277</v>
+        <v>1.50058396785037</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,10 +6765,10 @@
         <v>20</v>
       </c>
       <c r="D365" s="11" t="n">
-        <v>8.0563805</v>
+        <v>14.27353125</v>
       </c>
       <c r="E365" s="12" t="n">
-        <v>1.5670128571232</v>
+        <v>2.25882496441198</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,10 +6782,10 @@
         <v>21</v>
       </c>
       <c r="D366" s="14" t="n">
-        <v>7.86918575</v>
+        <v>17.0286035</v>
       </c>
       <c r="E366" s="15" t="n">
-        <v>1.77015341516546</v>
+        <v>2.48729495446755</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,10 +6799,10 @@
         <v>22</v>
       </c>
       <c r="D367" s="11" t="n">
-        <v>8.18008275</v>
+        <v>17.811575375</v>
       </c>
       <c r="E367" s="12" t="n">
-        <v>1.90070564645771</v>
+        <v>2.84367105349124</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,10 +6816,10 @@
         <v>23</v>
       </c>
       <c r="D368" s="14" t="n">
-        <v>12.427969125</v>
+        <v>8.741759</v>
       </c>
       <c r="E368" s="15" t="n">
-        <v>3.21409400163789</v>
+        <v>4.57389824569255</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,10 +6833,10 @@
         <v>24</v>
       </c>
       <c r="D369" s="11" t="n">
-        <v>14.308556875</v>
+        <v>2.18617925</v>
       </c>
       <c r="E369" s="12" t="n">
-        <v>2.12112802291856</v>
+        <v>0.642939719984641</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,10 +6850,10 @@
         <v>25</v>
       </c>
       <c r="D370" s="14" t="n">
-        <v>18.276715125</v>
+        <v>0.67484525</v>
       </c>
       <c r="E370" s="15" t="n">
-        <v>5.21888237451108</v>
+        <v>0.190894384667656</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,10 +6867,10 @@
         <v>26</v>
       </c>
       <c r="D371" s="11" t="n">
-        <v>14.705757875</v>
+        <v>0.642488125</v>
       </c>
       <c r="E371" s="12" t="n">
-        <v>3.32882732266847</v>
+        <v>0.347720075620128</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,10 +6884,10 @@
         <v>27</v>
       </c>
       <c r="D372" s="14" t="n">
-        <v>14.775606125</v>
+        <v>0.63906525</v>
       </c>
       <c r="E372" s="15" t="n">
-        <v>1.90254432859747</v>
+        <v>0.257530073241803</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,10 +6901,10 @@
         <v>28</v>
       </c>
       <c r="D373" s="11" t="n">
-        <v>16.183638625</v>
+        <v>0.609307875</v>
       </c>
       <c r="E373" s="12" t="n">
-        <v>2.67906568438849</v>
+        <v>0.274136688463171</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,10 +6918,10 @@
         <v>29</v>
       </c>
       <c r="D374" s="14" t="n">
-        <v>16.69401325</v>
+        <v>0.5566005</v>
       </c>
       <c r="E374" s="15" t="n">
-        <v>2.50077055035773</v>
+        <v>0.206283351661876</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,10 +6935,10 @@
         <v>30</v>
       </c>
       <c r="D375" s="11" t="n">
-        <v>25.4535225</v>
+        <v>0.63717725</v>
       </c>
       <c r="E375" s="12" t="n">
-        <v>4.18960736378431</v>
+        <v>0.176046411317138</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,10 +6952,10 @@
         <v>31</v>
       </c>
       <c r="D376" s="14" t="n">
-        <v>21.5293785</v>
+        <v>0.84157275</v>
       </c>
       <c r="E376" s="15" t="n">
-        <v>6.33992496864689</v>
+        <v>0.263448166029324</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,10 +6969,10 @@
         <v>7</v>
       </c>
       <c r="D377" s="21" t="n">
-        <v>0.765252</v>
+        <v>5.532161125</v>
       </c>
       <c r="E377" s="22" t="n">
-        <v>0.601032818551295</v>
+        <v>0.996254921814756</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,10 +6986,10 @@
         <v>8</v>
       </c>
       <c r="D378" s="11" t="n">
-        <v>0.585066</v>
+        <v>14.144157875</v>
       </c>
       <c r="E378" s="12" t="n">
-        <v>0.0804425254807076</v>
+        <v>2.81220771488022</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,10 +7003,10 @@
         <v>9</v>
       </c>
       <c r="D379" s="14" t="n">
-        <v>2.2403965</v>
+        <v>20.61658825</v>
       </c>
       <c r="E379" s="15" t="n">
-        <v>0.708523289900097</v>
+        <v>4.65604481104135</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="D380" s="11" t="n">
-        <v>4.392573625</v>
+        <v>8.1843045</v>
       </c>
       <c r="E380" s="12" t="n">
-        <v>1.70821127775995</v>
+        <v>1.24281890006434</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,10 +7037,10 @@
         <v>11</v>
       </c>
       <c r="D381" s="14" t="n">
-        <v>2.77801075</v>
+        <v>7.43111125</v>
       </c>
       <c r="E381" s="15" t="n">
-        <v>0.83949000763946</v>
+        <v>2.57147121019754</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,10 +7054,10 @@
         <v>12</v>
       </c>
       <c r="D382" s="11" t="n">
-        <v>3.048440375</v>
+        <v>9.89432225</v>
       </c>
       <c r="E382" s="12" t="n">
-        <v>0.963743402097547</v>
+        <v>1.34647546078618</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,10 +7071,10 @@
         <v>13</v>
       </c>
       <c r="D383" s="14" t="n">
-        <v>4.3226315</v>
+        <v>13.946114875</v>
       </c>
       <c r="E383" s="15" t="n">
-        <v>2.06155614243485</v>
+        <v>3.40915118867705</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,10 +7088,10 @@
         <v>14</v>
       </c>
       <c r="D384" s="11" t="n">
-        <v>4.334286125</v>
+        <v>9.451256</v>
       </c>
       <c r="E384" s="12" t="n">
-        <v>1.70592845948395</v>
+        <v>2.39335590321713</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,10 +7105,10 @@
         <v>15</v>
       </c>
       <c r="D385" s="14" t="n">
-        <v>5.062995375</v>
+        <v>24.960791375</v>
       </c>
       <c r="E385" s="15" t="n">
-        <v>1.33503686097768</v>
+        <v>8.34410418918318</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,10 +7122,10 @@
         <v>16</v>
       </c>
       <c r="D386" s="11" t="n">
-        <v>5.128697625</v>
+        <v>15.562661125</v>
       </c>
       <c r="E386" s="12" t="n">
-        <v>1.29237002987611</v>
+        <v>3.44214761212952</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,10 +7139,10 @@
         <v>17</v>
       </c>
       <c r="D387" s="14" t="n">
-        <v>5.200582625</v>
+        <v>12.599935125</v>
       </c>
       <c r="E387" s="15" t="n">
-        <v>1.12980575923727</v>
+        <v>2.48570760398439</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,10 +7156,10 @@
         <v>18</v>
       </c>
       <c r="D388" s="11" t="n">
-        <v>5.55478225</v>
+        <v>9.2050485</v>
       </c>
       <c r="E388" s="12" t="n">
-        <v>2.41634233470223</v>
+        <v>1.89254064173164</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,10 +7173,10 @@
         <v>19</v>
       </c>
       <c r="D389" s="14" t="n">
-        <v>5.6964655</v>
+        <v>9.065533625</v>
       </c>
       <c r="E389" s="15" t="n">
-        <v>1.8598786832652</v>
+        <v>1.23745838370277</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,10 +7190,10 @@
         <v>20</v>
       </c>
       <c r="D390" s="11" t="n">
-        <v>6.71481525</v>
+        <v>8.0563805</v>
       </c>
       <c r="E390" s="12" t="n">
-        <v>2.72862163785196</v>
+        <v>1.5670128571232</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,10 +7207,10 @@
         <v>21</v>
       </c>
       <c r="D391" s="14" t="n">
-        <v>6.88255175</v>
+        <v>7.86918575</v>
       </c>
       <c r="E391" s="15" t="n">
-        <v>3.66824138822187</v>
+        <v>1.77015341516546</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,10 +7224,10 @@
         <v>22</v>
       </c>
       <c r="D392" s="11" t="n">
-        <v>7.4447365</v>
+        <v>8.18008275</v>
       </c>
       <c r="E392" s="12" t="n">
-        <v>3.78531156843185</v>
+        <v>1.90070564645771</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7241,10 +7241,10 @@
         <v>23</v>
       </c>
       <c r="D393" s="14" t="n">
-        <v>3.49289625</v>
+        <v>12.427969125</v>
       </c>
       <c r="E393" s="15" t="n">
-        <v>2.44323458748987</v>
+        <v>3.21409400163789</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,10 +7258,10 @@
         <v>24</v>
       </c>
       <c r="D394" s="11" t="n">
-        <v>3.42750725</v>
+        <v>14.308556875</v>
       </c>
       <c r="E394" s="12" t="n">
-        <v>1.48998843621944</v>
+        <v>2.12112802291856</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,10 +7275,10 @@
         <v>25</v>
       </c>
       <c r="D395" s="14" t="n">
-        <v>2.789878125</v>
+        <v>18.276715125</v>
       </c>
       <c r="E395" s="15" t="n">
-        <v>0.959674626781753</v>
+        <v>5.21888237451108</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,10 +7292,10 @@
         <v>26</v>
       </c>
       <c r="D396" s="11" t="n">
-        <v>3.10348975</v>
+        <v>14.705757875</v>
       </c>
       <c r="E396" s="12" t="n">
-        <v>1.01380510701526</v>
+        <v>3.32882732266847</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,10 +7309,10 @@
         <v>27</v>
       </c>
       <c r="D397" s="14" t="n">
-        <v>2.9970955</v>
+        <v>14.775606125</v>
       </c>
       <c r="E397" s="15" t="n">
-        <v>0.954320904677397</v>
+        <v>1.90254432859747</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,10 +7326,10 @@
         <v>28</v>
       </c>
       <c r="D398" s="11" t="n">
-        <v>2.991031125</v>
+        <v>16.183638625</v>
       </c>
       <c r="E398" s="12" t="n">
-        <v>1.24244201260277</v>
+        <v>2.67906568438849</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,10 +7343,10 @@
         <v>29</v>
       </c>
       <c r="D399" s="14" t="n">
-        <v>1.981158125</v>
+        <v>16.69401325</v>
       </c>
       <c r="E399" s="15" t="n">
-        <v>0.664275165047574</v>
+        <v>2.50077055035773</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,10 +7360,10 @@
         <v>30</v>
       </c>
       <c r="D400" s="11" t="n">
-        <v>1.56806025</v>
+        <v>25.4535225</v>
       </c>
       <c r="E400" s="12" t="n">
-        <v>0.864032305757595</v>
+        <v>4.18960736378431</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,10 +7377,10 @@
         <v>31</v>
       </c>
       <c r="D401" s="14" t="n">
-        <v>1.767506</v>
+        <v>21.5293785</v>
       </c>
       <c r="E401" s="15" t="n">
-        <v>1.57438684511028</v>
+        <v>6.33992496864689</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7394,10 +7394,10 @@
         <v>7</v>
       </c>
       <c r="D402" s="21" t="n">
-        <v>28.91659075</v>
+        <v>0.765252</v>
       </c>
       <c r="E402" s="22" t="n">
-        <v>6.10666212268797</v>
+        <v>0.601032818551295</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,10 +7411,10 @@
         <v>8</v>
       </c>
       <c r="D403" s="11" t="n">
-        <v>23.843769</v>
+        <v>0.585066</v>
       </c>
       <c r="E403" s="12" t="n">
-        <v>4.27320278910251</v>
+        <v>0.0804425254807076</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,10 +7428,10 @@
         <v>9</v>
       </c>
       <c r="D404" s="14" t="n">
-        <v>14.971567375</v>
+        <v>2.2403965</v>
       </c>
       <c r="E404" s="15" t="n">
-        <v>2.05658348352747</v>
+        <v>0.708523289900097</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,10 +7445,10 @@
         <v>10</v>
       </c>
       <c r="D405" s="11" t="n">
-        <v>18.706493125</v>
+        <v>4.392573625</v>
       </c>
       <c r="E405" s="12" t="n">
-        <v>3.40555236019015</v>
+        <v>1.70821127775995</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,10 +7462,10 @@
         <v>11</v>
       </c>
       <c r="D406" s="14" t="n">
-        <v>21.533550875</v>
+        <v>2.77801075</v>
       </c>
       <c r="E406" s="15" t="n">
-        <v>4.46283257679497</v>
+        <v>0.83949000763946</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,10 +7479,10 @@
         <v>12</v>
       </c>
       <c r="D407" s="11" t="n">
-        <v>20.083092375</v>
+        <v>3.048440375</v>
       </c>
       <c r="E407" s="12" t="n">
-        <v>4.41103747087663</v>
+        <v>0.963743402097547</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,10 +7496,10 @@
         <v>13</v>
       </c>
       <c r="D408" s="14" t="n">
-        <v>24.47793675</v>
+        <v>4.3226315</v>
       </c>
       <c r="E408" s="15" t="n">
-        <v>4.77781180366314</v>
+        <v>2.06155614243485</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7513,10 +7513,10 @@
         <v>14</v>
       </c>
       <c r="D409" s="11" t="n">
-        <v>26.732505375</v>
+        <v>4.334286125</v>
       </c>
       <c r="E409" s="12" t="n">
-        <v>2.13654019300677</v>
+        <v>1.70592845948395</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,10 +7530,10 @@
         <v>15</v>
       </c>
       <c r="D410" s="14" t="n">
-        <v>13.77771625</v>
+        <v>5.062995375</v>
       </c>
       <c r="E410" s="15" t="n">
-        <v>3.33319869349556</v>
+        <v>1.33503686097768</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7547,10 +7547,10 @@
         <v>16</v>
       </c>
       <c r="D411" s="11" t="n">
-        <v>11.26019875</v>
+        <v>5.128697625</v>
       </c>
       <c r="E411" s="12" t="n">
-        <v>3.63522591546648</v>
+        <v>1.29237002987611</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,10 +7564,10 @@
         <v>17</v>
       </c>
       <c r="D412" s="14" t="n">
-        <v>7.567507625</v>
+        <v>5.200582625</v>
       </c>
       <c r="E412" s="15" t="n">
-        <v>1.82924647521595</v>
+        <v>1.12980575923727</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,10 +7581,10 @@
         <v>18</v>
       </c>
       <c r="D413" s="11" t="n">
-        <v>12.960984375</v>
+        <v>5.55478225</v>
       </c>
       <c r="E413" s="12" t="n">
-        <v>1.81147272763958</v>
+        <v>2.41634233470223</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,10 +7598,10 @@
         <v>19</v>
       </c>
       <c r="D414" s="14" t="n">
-        <v>15.444205625</v>
+        <v>5.6964655</v>
       </c>
       <c r="E414" s="15" t="n">
-        <v>2.15478285755764</v>
+        <v>1.8598786832652</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,10 +7615,10 @@
         <v>20</v>
       </c>
       <c r="D415" s="11" t="n">
-        <v>15.8244695</v>
+        <v>6.71481525</v>
       </c>
       <c r="E415" s="12" t="n">
-        <v>1.75732797345418</v>
+        <v>2.72862163785196</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,10 +7632,10 @@
         <v>21</v>
       </c>
       <c r="D416" s="14" t="n">
-        <v>15.597677375</v>
+        <v>6.88255175</v>
       </c>
       <c r="E416" s="15" t="n">
-        <v>2.54433706435746</v>
+        <v>3.66824138822187</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7649,10 +7649,10 @@
         <v>22</v>
       </c>
       <c r="D417" s="11" t="n">
-        <v>14.908382875</v>
+        <v>7.4447365</v>
       </c>
       <c r="E417" s="12" t="n">
-        <v>1.87904909495213</v>
+        <v>3.78531156843185</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7666,10 +7666,10 @@
         <v>23</v>
       </c>
       <c r="D418" s="14" t="n">
-        <v>22.635605375</v>
+        <v>3.49289625</v>
       </c>
       <c r="E418" s="15" t="n">
-        <v>4.67342933897879</v>
+        <v>2.44323458748987</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7683,10 +7683,10 @@
         <v>24</v>
       </c>
       <c r="D419" s="11" t="n">
-        <v>26.75256125</v>
+        <v>3.42750725</v>
       </c>
       <c r="E419" s="12" t="n">
-        <v>4.34197521236827</v>
+        <v>1.48998843621944</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,10 +7700,10 @@
         <v>25</v>
       </c>
       <c r="D420" s="14" t="n">
-        <v>22.962918875</v>
+        <v>2.789878125</v>
       </c>
       <c r="E420" s="15" t="n">
-        <v>3.74756804517419</v>
+        <v>0.959674626781753</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,10 +7717,10 @@
         <v>26</v>
       </c>
       <c r="D421" s="11" t="n">
-        <v>28.680428625</v>
+        <v>3.10348975</v>
       </c>
       <c r="E421" s="12" t="n">
-        <v>5.15051814036249</v>
+        <v>1.01380510701526</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7734,10 +7734,10 @@
         <v>27</v>
       </c>
       <c r="D422" s="14" t="n">
-        <v>29.5952885</v>
+        <v>2.9970955</v>
       </c>
       <c r="E422" s="15" t="n">
-        <v>3.23784073240865</v>
+        <v>0.954320904677397</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,10 +7751,10 @@
         <v>28</v>
       </c>
       <c r="D423" s="11" t="n">
-        <v>28.35444725</v>
+        <v>2.991031125</v>
       </c>
       <c r="E423" s="12" t="n">
-        <v>2.84130242099146</v>
+        <v>1.24244201260277</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,10 +7768,10 @@
         <v>29</v>
       </c>
       <c r="D424" s="14" t="n">
-        <v>30.321876</v>
+        <v>1.981158125</v>
       </c>
       <c r="E424" s="15" t="n">
-        <v>3.25356038090823</v>
+        <v>0.664275165047574</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,10 +7785,10 @@
         <v>30</v>
       </c>
       <c r="D425" s="11" t="n">
-        <v>24.130926</v>
+        <v>1.56806025</v>
       </c>
       <c r="E425" s="12" t="n">
-        <v>3.37086834753065</v>
+        <v>0.864032305757595</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,13 +7802,13 @@
         <v>31</v>
       </c>
       <c r="D426" s="14" t="n">
-        <v>24.402106875</v>
+        <v>1.767506</v>
       </c>
       <c r="E426" s="15" t="n">
-        <v>4.49847162915227</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.57438684511028</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5" t="s">
         <v>36</v>
       </c>
@@ -7819,13 +7819,13 @@
         <v>7</v>
       </c>
       <c r="D427" s="21" t="n">
-        <v>20.516634625</v>
+        <v>28.91659075</v>
       </c>
       <c r="E427" s="22" t="n">
-        <v>2.74069262777131</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.10666212268797</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5" t="s">
         <v>36</v>
       </c>
@@ -7836,13 +7836,13 @@
         <v>8</v>
       </c>
       <c r="D428" s="11" t="n">
-        <v>14.926816375</v>
+        <v>23.843769</v>
       </c>
       <c r="E428" s="12" t="n">
-        <v>3.11658605148509</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.27320278910251</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5" t="s">
         <v>36</v>
       </c>
@@ -7853,13 +7853,13 @@
         <v>9</v>
       </c>
       <c r="D429" s="14" t="n">
-        <v>11.620005625</v>
+        <v>14.971567375</v>
       </c>
       <c r="E429" s="15" t="n">
-        <v>2.85184968451003</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.05658348352747</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5" t="s">
         <v>36</v>
       </c>
@@ -7870,13 +7870,13 @@
         <v>10</v>
       </c>
       <c r="D430" s="11" t="n">
-        <v>19.91881675</v>
+        <v>18.706493125</v>
       </c>
       <c r="E430" s="12" t="n">
-        <v>3.79284147938605</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.40555236019015</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5" t="s">
         <v>36</v>
       </c>
@@ -7887,13 +7887,13 @@
         <v>11</v>
       </c>
       <c r="D431" s="14" t="n">
-        <v>20.156165875</v>
+        <v>21.533550875</v>
       </c>
       <c r="E431" s="15" t="n">
-        <v>4.70473734247433</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.46283257679497</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5" t="s">
         <v>36</v>
       </c>
@@ -7904,13 +7904,13 @@
         <v>12</v>
       </c>
       <c r="D432" s="11" t="n">
-        <v>20.103873375</v>
+        <v>20.083092375</v>
       </c>
       <c r="E432" s="12" t="n">
-        <v>3.31753124923131</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.41103747087663</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="s">
         <v>36</v>
       </c>
@@ -7921,13 +7921,13 @@
         <v>13</v>
       </c>
       <c r="D433" s="14" t="n">
-        <v>18.994163875</v>
+        <v>24.47793675</v>
       </c>
       <c r="E433" s="15" t="n">
-        <v>3.59539614045575</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.77781180366314</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5" t="s">
         <v>36</v>
       </c>
@@ -7938,13 +7938,13 @@
         <v>14</v>
       </c>
       <c r="D434" s="11" t="n">
-        <v>18.606982375</v>
+        <v>26.732505375</v>
       </c>
       <c r="E434" s="12" t="n">
-        <v>2.59891625106823</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.13654019300677</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5" t="s">
         <v>36</v>
       </c>
@@ -7955,13 +7955,13 @@
         <v>15</v>
       </c>
       <c r="D435" s="14" t="n">
-        <v>25.080495</v>
+        <v>13.77771625</v>
       </c>
       <c r="E435" s="15" t="n">
-        <v>5.84857046986595</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.33319869349556</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5" t="s">
         <v>36</v>
       </c>
@@ -7972,13 +7972,13 @@
         <v>16</v>
       </c>
       <c r="D436" s="11" t="n">
-        <v>35.16030025</v>
+        <v>11.26019875</v>
       </c>
       <c r="E436" s="12" t="n">
-        <v>6.44131848840841</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.63522591546648</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5" t="s">
         <v>36</v>
       </c>
@@ -7989,13 +7989,13 @@
         <v>17</v>
       </c>
       <c r="D437" s="14" t="n">
-        <v>39.598048</v>
+        <v>7.567507625</v>
       </c>
       <c r="E437" s="15" t="n">
-        <v>3.51856763015382</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.82924647521595</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5" t="s">
         <v>36</v>
       </c>
@@ -8006,13 +8006,13 @@
         <v>18</v>
       </c>
       <c r="D438" s="11" t="n">
-        <v>43.3115205</v>
+        <v>12.960984375</v>
       </c>
       <c r="E438" s="12" t="n">
-        <v>4.29979361107378</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.81147272763958</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5" t="s">
         <v>36</v>
       </c>
@@ -8023,13 +8023,13 @@
         <v>19</v>
       </c>
       <c r="D439" s="14" t="n">
-        <v>39.153396625</v>
+        <v>15.444205625</v>
       </c>
       <c r="E439" s="15" t="n">
-        <v>3.8314825477264</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.15478285755764</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5" t="s">
         <v>36</v>
       </c>
@@ -8040,13 +8040,13 @@
         <v>20</v>
       </c>
       <c r="D440" s="11" t="n">
-        <v>37.11423325</v>
+        <v>15.8244695</v>
       </c>
       <c r="E440" s="12" t="n">
-        <v>3.2587199216769</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.75732797345418</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5" t="s">
         <v>36</v>
       </c>
@@ -8057,13 +8057,13 @@
         <v>21</v>
       </c>
       <c r="D441" s="14" t="n">
-        <v>35.9514995</v>
+        <v>15.597677375</v>
       </c>
       <c r="E441" s="15" t="n">
-        <v>3.20220464979136</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.54433706435746</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5" t="s">
         <v>36</v>
       </c>
@@ -8074,13 +8074,13 @@
         <v>22</v>
       </c>
       <c r="D442" s="11" t="n">
-        <v>35.830445875</v>
+        <v>14.908382875</v>
       </c>
       <c r="E442" s="12" t="n">
-        <v>3.20931305376647</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.87904909495213</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5" t="s">
         <v>36</v>
       </c>
@@ -8091,13 +8091,13 @@
         <v>23</v>
       </c>
       <c r="D443" s="14" t="n">
-        <v>24.77737025</v>
+        <v>22.635605375</v>
       </c>
       <c r="E443" s="15" t="n">
-        <v>5.58313568465785</v>
-      </c>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.67342933897879</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5" t="s">
         <v>36</v>
       </c>
@@ -8108,13 +8108,13 @@
         <v>24</v>
       </c>
       <c r="D444" s="11" t="n">
-        <v>18.890345</v>
+        <v>26.75256125</v>
       </c>
       <c r="E444" s="12" t="n">
-        <v>2.06846414626602</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4.34197521236827</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5" t="s">
         <v>36</v>
       </c>
@@ -8125,13 +8125,13 @@
         <v>25</v>
       </c>
       <c r="D445" s="14" t="n">
-        <v>17.291000125</v>
+        <v>22.962918875</v>
       </c>
       <c r="E445" s="15" t="n">
-        <v>4.00158978134232</v>
-      </c>
-    </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.74756804517419</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5" t="s">
         <v>36</v>
       </c>
@@ -8142,13 +8142,13 @@
         <v>26</v>
       </c>
       <c r="D446" s="11" t="n">
-        <v>21.34191725</v>
+        <v>28.680428625</v>
       </c>
       <c r="E446" s="12" t="n">
-        <v>7.12454171437445</v>
-      </c>
-    </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5.15051814036249</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5" t="s">
         <v>36</v>
       </c>
@@ -8159,13 +8159,13 @@
         <v>27</v>
       </c>
       <c r="D447" s="14" t="n">
-        <v>21.36930825</v>
+        <v>29.5952885</v>
       </c>
       <c r="E447" s="15" t="n">
-        <v>2.61015991706364</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.23784073240865</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5" t="s">
         <v>36</v>
       </c>
@@ -8176,13 +8176,13 @@
         <v>28</v>
       </c>
       <c r="D448" s="11" t="n">
-        <v>19.880022</v>
+        <v>28.35444725</v>
       </c>
       <c r="E448" s="12" t="n">
-        <v>2.74215778775438</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.84130242099146</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5" t="s">
         <v>36</v>
       </c>
@@ -8193,13 +8193,13 @@
         <v>29</v>
       </c>
       <c r="D449" s="14" t="n">
-        <v>17.725723375</v>
+        <v>30.321876</v>
       </c>
       <c r="E449" s="15" t="n">
-        <v>4.40134528243857</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.25356038090823</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5" t="s">
         <v>36</v>
       </c>
@@ -8210,13 +8210,13 @@
         <v>30</v>
       </c>
       <c r="D450" s="11" t="n">
-        <v>14.025701</v>
+        <v>24.130926</v>
       </c>
       <c r="E450" s="12" t="n">
-        <v>5.06738098354463</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.37086834753065</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5" t="s">
         <v>36</v>
       </c>
@@ -8227,10 +8227,10 @@
         <v>31</v>
       </c>
       <c r="D451" s="14" t="n">
-        <v>16.4692735</v>
+        <v>24.402106875</v>
       </c>
       <c r="E451" s="15" t="n">
-        <v>5.33586941642407</v>
+        <v>4.49847162915227</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
